--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value231.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value231.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7775468061143193</v>
+        <v>1.216730117797852</v>
       </c>
       <c r="B1">
-        <v>0.7450568457179619</v>
+        <v>2.162088632583618</v>
       </c>
       <c r="C1">
-        <v>0.7585806001681216</v>
+        <v>4.053619384765625</v>
       </c>
       <c r="D1">
-        <v>0.9882904280246124</v>
+        <v>3.160155296325684</v>
       </c>
       <c r="E1">
-        <v>1.613140346601697</v>
+        <v>1.096912264823914</v>
       </c>
     </row>
   </sheetData>
